--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3292951.69730398</v>
+        <v>3290408.580335383</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>85.85075408743575</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>49.69390785318545</v>
       </c>
       <c r="U2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>76.35265492043627</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>72.30724817220755</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>132.9267687173775</v>
       </c>
       <c r="W4" t="n">
-        <v>141.6494246526457</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143467</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>236.0696336377444</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>236.0696336377427</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>290.2905114143447</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143467</v>
+        <v>290.2905114143447</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143467</v>
+        <v>290.2905114143447</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>60.23681627109862</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790353</v>
+        <v>15.09724236790375</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.2358974242411</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>116.378437499982</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,16 +1057,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441978</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3.64710027651665</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>205.7988918365562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920584</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>121.7301906704631</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>199.4095034501334</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050012</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>261.5505590167101</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206853</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337071</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187898</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>1.117369287772169e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472109</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.117369287772169e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3035,13 +3035,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722643</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648966</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656056</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.945761879058</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710092</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605717463</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701371</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.287209419513539e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724358</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="C2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="D2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="E2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="F2" t="n">
-        <v>225.5955398728619</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>138.8776064512096</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470348</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605489</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779391</v>
+        <v>643.3443219779377</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948986</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444251</v>
+        <v>924.2476725444232</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660201</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660201</v>
+        <v>752.820888544477</v>
       </c>
       <c r="U2" t="n">
-        <v>717.0015419180352</v>
+        <v>510.5906378964926</v>
       </c>
       <c r="V2" t="n">
-        <v>474.7712912700503</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="W2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="X2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.5410406220654</v>
+        <v>268.3603872485082</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>489.1066327668137</v>
+        <v>193.6376651324474</v>
       </c>
       <c r="C3" t="n">
-        <v>314.6536034856867</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D3" t="n">
-        <v>165.7191938244354</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>85.30141548166266</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467741</v>
+        <v>152.9092351450195</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607143</v>
+        <v>290.1388331607133</v>
       </c>
       <c r="M3" t="n">
-        <v>469.636169515319</v>
+        <v>469.6361695153179</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679837</v>
+        <v>668.2929111679823</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367443</v>
+        <v>827.8052238367427</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640431</v>
+        <v>936.4948513640413</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682068</v>
+        <v>938.1198929682049</v>
       </c>
       <c r="S3" t="n">
-        <v>938.1198929682068</v>
+        <v>938.1198929682049</v>
       </c>
       <c r="T3" t="n">
-        <v>938.1198929682068</v>
+        <v>741.1305971282925</v>
       </c>
       <c r="U3" t="n">
-        <v>938.1198929682068</v>
+        <v>512.9918096394583</v>
       </c>
       <c r="V3" t="n">
-        <v>865.0822685518356</v>
+        <v>512.9918096394583</v>
       </c>
       <c r="W3" t="n">
-        <v>865.0822685518356</v>
+        <v>270.7615589914739</v>
       </c>
       <c r="X3" t="n">
-        <v>865.0822685518356</v>
+        <v>270.7615589914739</v>
       </c>
       <c r="Y3" t="n">
-        <v>657.3219697868817</v>
+        <v>270.7615589914739</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>504.0251395333188</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C4" t="n">
-        <v>335.0889566054119</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9723171930762</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>37.05922361068303</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>245.178035603102</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557427013</v>
+        <v>450.4476363223399</v>
       </c>
       <c r="N4" t="n">
-        <v>659.6893205788056</v>
+        <v>656.2710011584441</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674044</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660201</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854228</v>
+        <v>828.7538312854208</v>
       </c>
       <c r="S4" t="n">
-        <v>828.7538312854228</v>
+        <v>621.3135465378261</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7538312854228</v>
+        <v>395.6843498501911</v>
       </c>
       <c r="U4" t="n">
-        <v>828.7538312854228</v>
+        <v>395.6843498501911</v>
       </c>
       <c r="V4" t="n">
-        <v>828.7538312854228</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="W4" t="n">
-        <v>685.6736043635585</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="X4" t="n">
-        <v>685.6736043635585</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="Y4" t="n">
-        <v>685.6736043635585</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.4938292502756</v>
+        <v>574.7165680526421</v>
       </c>
       <c r="C5" t="n">
-        <v>43.03965385861449</v>
+        <v>574.7165680526421</v>
       </c>
       <c r="D5" t="n">
-        <v>43.03965385861449</v>
+        <v>336.2623926609828</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861449</v>
+        <v>43.03965385861434</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09415310941102</v>
+        <v>36.09415310941087</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951976</v>
+        <v>59.13673382951907</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444955</v>
+        <v>163.700268344494</v>
       </c>
       <c r="L5" t="n">
-        <v>330.322340908464</v>
+        <v>330.322340908461</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162864</v>
+        <v>547.3909387162823</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537045</v>
+        <v>772.5857417536994</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416907</v>
+        <v>971.8955472416849</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171412</v>
+        <v>1107.500854171405</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="X5" t="n">
-        <v>867.9393068550163</v>
+        <v>867.9393068550105</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.7165680526459</v>
+        <v>574.7165680526421</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>652.3826928340966</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="C6" t="n">
-        <v>477.9296635529695</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="D6" t="n">
-        <v>328.9952538917183</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="E6" t="n">
-        <v>169.7577988862628</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508926</v>
+        <v>25.79522430508877</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063293</v>
+        <v>108.3459783063282</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119408</v>
+        <v>265.668195611939</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702531</v>
+        <v>468.6126709702505</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269138</v>
+        <v>691.3371276269104</v>
       </c>
       <c r="O6" t="n">
-        <v>872.8666975145444</v>
+        <v>872.8666975145402</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356707</v>
+        <v>1126.61264931322</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657387</v>
+        <v>1161.162045657379</v>
       </c>
       <c r="R6" t="n">
-        <v>1145.912305891828</v>
+        <v>1145.91230589182</v>
       </c>
       <c r="S6" t="n">
-        <v>1145.912305891828</v>
+        <v>998.199278190566</v>
       </c>
       <c r="T6" t="n">
-        <v>1145.912305891828</v>
+        <v>801.5905506528463</v>
       </c>
       <c r="U6" t="n">
-        <v>1145.912305891828</v>
+        <v>573.4579748337976</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.912305891828</v>
+        <v>338.3058666020549</v>
       </c>
       <c r="W6" t="n">
-        <v>1145.912305891828</v>
+        <v>84.06850987385326</v>
       </c>
       <c r="X6" t="n">
-        <v>1028.358328619119</v>
+        <v>84.06850987385326</v>
       </c>
       <c r="Y6" t="n">
-        <v>820.5980298541647</v>
+        <v>84.06850987385326</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>658.7168454800732</v>
+        <v>192.1594238410545</v>
       </c>
       <c r="C7" t="n">
-        <v>489.7806625521663</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="D7" t="n">
-        <v>339.6640231398305</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="E7" t="n">
-        <v>191.7509295574374</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="F7" t="n">
-        <v>191.7509295574374</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314773</v>
+        <v>23.22324091314758</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279148</v>
+        <v>133.2846894279143</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993041</v>
+        <v>329.6518852993032</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276992</v>
+        <v>547.0826837276978</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730503</v>
+        <v>764.7780801730485</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967866</v>
+        <v>949.8387182967844</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195908</v>
+        <v>1084.669382195906</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899864</v>
+        <v>1094.584064899861</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899864</v>
+        <v>967.6652614208738</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899864</v>
+        <v>967.6652614208738</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899864</v>
+        <v>963.9813217476246</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899864</v>
+        <v>674.8334629449587</v>
       </c>
       <c r="V7" t="n">
-        <v>886.7063963780905</v>
+        <v>420.1489747390718</v>
       </c>
       <c r="W7" t="n">
-        <v>886.7063963780905</v>
+        <v>420.1489747390718</v>
       </c>
       <c r="X7" t="n">
-        <v>658.7168454800732</v>
+        <v>192.1594238410545</v>
       </c>
       <c r="Y7" t="n">
-        <v>658.7168454800732</v>
+        <v>192.1594238410545</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1709.873294294347</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818656</v>
+        <v>982.6450787471854</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>596.8568261489411</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>589.9113253997376</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>174.2065751240265</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1709.873294294347</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>102.742491745203</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>530.9249843929716</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>94.65038286230657</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5780,10 +5780,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6154,7 +6154,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>941.1773875143809</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6212,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6391,7 +6391,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168638</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>695.5020655703104</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>526.5658826424034</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>489.9894131830891</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>489.989413183089</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851786</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746423</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>175.8744207939063</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>175.8744207939063</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>671.2000270096652</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636217</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,13 +6874,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487568</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7087,10 +7087,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7102,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820878</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7339,7 +7339,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085243</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879356</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921465</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898186988</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,64 +7634,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.142269263731</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684178</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991051</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711981</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.527634571198</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888047</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.528494205774</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.654127232582</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.57890057678</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370893</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472875</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329345</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>73.01783107116312</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66.78462588923531</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8140,10 +8140,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.982252304538</v>
       </c>
       <c r="M4" t="n">
-        <v>121.4700595717839</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839804</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506793</v>
+        <v>54.74236624506833</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>128.6722568460139</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.6722568460163</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471577</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.63391537253409</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534914</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823017</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719817</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823031</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172138</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485258</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>714701.6910632466</v>
+        <v>714701.6910632465</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778549</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210951</v>
+        <v>55881.3234221079</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276237</v>
+        <v>363279.8866276258</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353588</v>
+        <v>62744.31078353586</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440459</v>
+        <v>12992.59634440434</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666252</v>
+        <v>88656.33991666298</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8.983729144504116e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.600207353789552e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431038</v>
+        <v>246054.6603431043</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683032</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683026</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683032</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683031</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683036</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302704</v>
+        <v>65162.40123302689</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26506,10 +26506,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235517.3613426338</v>
+        <v>-235517.3613426337</v>
       </c>
       <c r="C6" t="n">
-        <v>371839.2078796147</v>
+        <v>371839.2078796161</v>
       </c>
       <c r="D6" t="n">
-        <v>138768.8398275671</v>
+        <v>138768.8398275653</v>
       </c>
       <c r="E6" t="n">
-        <v>104827.1041257219</v>
+        <v>104792.3662002865</v>
       </c>
       <c r="F6" t="n">
-        <v>612312.5457502677</v>
+        <v>612277.8078248317</v>
       </c>
       <c r="G6" t="n">
-        <v>612312.5457502676</v>
+        <v>612277.8078248319</v>
       </c>
       <c r="H6" t="n">
-        <v>612312.5457502678</v>
+        <v>612277.8078248322</v>
       </c>
       <c r="I6" t="n">
-        <v>612312.5457502678</v>
+        <v>612277.8078248318</v>
       </c>
       <c r="J6" t="n">
-        <v>549568.2349667316</v>
+        <v>549533.4970412962</v>
       </c>
       <c r="K6" t="n">
-        <v>599319.9494058629</v>
+        <v>599285.2114804279</v>
       </c>
       <c r="L6" t="n">
-        <v>523656.2058336051</v>
+        <v>523621.4679081694</v>
       </c>
       <c r="M6" t="n">
-        <v>479705.2520213409</v>
+        <v>479670.5140959056</v>
       </c>
       <c r="N6" t="n">
-        <v>612312.5457502677</v>
+        <v>612277.807824832</v>
       </c>
       <c r="O6" t="n">
-        <v>612312.5457502677</v>
+        <v>612277.8078248319</v>
       </c>
       <c r="P6" t="n">
-        <v>612312.5457502676</v>
+        <v>612277.8078248323</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.015790261611063e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575582</v>
+        <v>636.9329421575566</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143467</v>
+        <v>290.2905114143447</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.25181770275356e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949321</v>
+        <v>43.45684181949196</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599809</v>
+        <v>297.1319499599828</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,49 +27009,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>239.8079481415045</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50.48256327284022</v>
+      </c>
+      <c r="D4" t="n">
+        <v>350.294320685694</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996096</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>239.807948141505</v>
       </c>
-      <c r="C4" t="n">
-        <v>50.48256327284165</v>
-      </c>
-      <c r="D4" t="n">
-        <v>350.2943206856922</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996095</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>239.8079481415049</v>
-      </c>
       <c r="K4" t="n">
-        <v>50.4825632728412</v>
+        <v>50.48256327284022</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856922</v>
+        <v>350.294320685694</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284165</v>
+        <v>50.48256327284022</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856922</v>
+        <v>350.294320685694</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>327.066149858501</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>162.9579552617806</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079561</v>
+        <v>11.3468380807961</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032862988</v>
+        <v>87.94431032863037</v>
       </c>
       <c r="W2" t="n">
-        <v>109.433020575908</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>90.18052872943107</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>160.4933389772177</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941507</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>119.2108746064505</v>
       </c>
       <c r="W4" t="n">
-        <v>144.8735736839453</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913391</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>129.2032581332631</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>118.6134079829403</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>91.63985865791705</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401375</v>
+        <v>111.7608855401377</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157313</v>
+        <v>150.6718910157315</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.44058926412237</v>
+        <v>79.4405892641243</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724170692</v>
+        <v>95.94742724170885</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>106.2963673787687</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337435</v>
+        <v>99.00406368337438</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370911</v>
+        <v>42.22754232370923</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>89.3945477034955</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
@@ -27795,7 +27795,7 @@
         <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340509</v>
+        <v>12.15545075340529</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>219.3909730400591</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.33875148727185</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802033</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>179.2883618919423</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>96.27076102970096</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.17514990196136</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.553251631224171e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-9.281837992243618e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-2.403612940866126e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.25181770275356e-14</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-9.25181770275356e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1.117369287772169e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29755,13 +29755,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-2.173759702180247e-12</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-9.25181770275356e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-2.411577144875051e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-2.185668657555903e-12</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834403</v>
+        <v>2.560534440834396</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219533</v>
+        <v>26.22307334219527</v>
       </c>
       <c r="I5" t="n">
-        <v>98.7150040302684</v>
+        <v>98.71500403026816</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977691</v>
+        <v>217.3221599977686</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782894</v>
+        <v>325.7095828782886</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719753</v>
+        <v>404.0715387719744</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341642</v>
+        <v>449.607443134163</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141849</v>
+        <v>456.8825616141838</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681378</v>
+        <v>431.4212472681367</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600384</v>
+        <v>368.2080532600375</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976563</v>
+        <v>276.5089135976556</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690642</v>
+        <v>160.8431715690638</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051401</v>
+        <v>58.34817857051387</v>
       </c>
       <c r="T5" t="n">
-        <v>11.2087395147526</v>
+        <v>11.20873951475258</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667522</v>
+        <v>0.2048427552667517</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772861</v>
+        <v>1.370006705772858</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312211</v>
+        <v>13.23138055312207</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770597</v>
+        <v>47.16909052770585</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888299</v>
+        <v>129.4355896888295</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756115</v>
+        <v>221.226038975611</v>
       </c>
       <c r="L6" t="n">
-        <v>297.465710391603</v>
+        <v>297.4657103916023</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758692</v>
+        <v>347.1284534758683</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264249</v>
+        <v>356.315910726424</v>
       </c>
       <c r="O6" t="n">
-        <v>325.959446351142</v>
+        <v>325.9594463511413</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892054</v>
+        <v>261.6111927892047</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316375</v>
+        <v>174.8801542316371</v>
       </c>
       <c r="R6" t="n">
-        <v>85.0605917847396</v>
+        <v>85.06059178473939</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959677</v>
+        <v>25.4472736795967</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479205</v>
+        <v>5.522088432479191</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663562</v>
+        <v>0.0901320201166354</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.14856760061199</v>
+        <v>1.148567600611987</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180479</v>
+        <v>10.21181012180477</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749513</v>
+        <v>34.54056020749504</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326768</v>
+        <v>81.20372936326748</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438294</v>
+        <v>133.442672143829</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400771</v>
+        <v>170.7606776400767</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577504</v>
+        <v>180.0431921577499</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645604</v>
+        <v>175.7621674645599</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846839</v>
+        <v>162.3448095846835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321992</v>
+        <v>138.9140305321988</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579128</v>
+        <v>96.17687426579104</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297183</v>
+        <v>51.6437759329717</v>
       </c>
       <c r="S7" t="n">
-        <v>20.0164008215744</v>
+        <v>20.01640082157435</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705775</v>
+        <v>4.907516111705762</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156316</v>
+        <v>0.06264914185156301</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32309,16 +32309,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32740,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,31 +32789,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>324.5433647340724</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32880,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32977,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,28 +33020,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0266243181827</v>
+        <v>396.9700886943659</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33050,7 +33050,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33117,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33214,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,37 +33257,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181827</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>491.597732526531</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33354,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,34 +33497,34 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524589</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33688,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33761,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33828,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33925,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>268.6704608606955</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -33998,7 +33998,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34065,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422505</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34293,31 +34293,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
         <v>0.1345549672467222</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,28 +34451,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>285.8867128925971</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34530,31 +34530,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
         <v>0.1345549672467222</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.78462588923465</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>205.4003814606433</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>126.2075456122949</v>
       </c>
       <c r="M4" t="n">
-        <v>150.3034296918715</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108281</v>
+        <v>36.27625547108227</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333089</v>
+        <v>105.619731833308</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019881</v>
+        <v>168.3051238019871</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068914</v>
+        <v>219.2612099068903</v>
       </c>
       <c r="N5" t="n">
-        <v>227.469498017594</v>
+        <v>227.4694980175929</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464511</v>
+        <v>201.32303584645</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047689</v>
+        <v>136.975057504768</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320683</v>
+        <v>54.20322372320615</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163157</v>
+        <v>2.597963022162816</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125252</v>
+        <v>83.38460000125198</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117288</v>
+        <v>158.9113306117281</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538508</v>
+        <v>204.99441955385</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430916</v>
+        <v>224.9741986430907</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066976</v>
+        <v>183.3632019066968</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748752</v>
+        <v>256.3090422208883</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916323</v>
+        <v>34.89838014561553</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179465</v>
+        <v>111.1731803179462</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003933</v>
+        <v>198.3507029003929</v>
       </c>
       <c r="M7" t="n">
-        <v>219.627069119591</v>
+        <v>219.6270691195905</v>
       </c>
       <c r="N7" t="n">
-        <v>219.894339843789</v>
+        <v>219.8943398437885</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987235</v>
+        <v>186.9299374987231</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970927</v>
+        <v>136.1925897970923</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.0148310140969</v>
+        <v>10.01483101409666</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291982</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120541</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>101.8925903961643</v>
+        <v>254.8360547723476</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>349.0014880820866</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579226</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>134.6960534463653</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37710,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237632</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782669</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
         <v>394.3420143191315</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
